--- a/CSP/data/test_csp_data.xlsx
+++ b/CSP/data/test_csp_data.xlsx
@@ -176,7 +176,7 @@
     <t>testReport</t>
   </si>
   <si>
-    <t>E:\warehouse\webUI1.1\data\test-maap</t>
+    <t>E:\test\test_file</t>
   </si>
   <si>
     <t>013</t>
@@ -203,7 +203,7 @@
     <t>输入新增的CSP名称</t>
   </si>
   <si>
-    <t>中国电信100017</t>
+    <t>中国电信100023</t>
   </si>
   <si>
     <t>处理客户类型下拉框</t>
@@ -212,10 +212,13 @@
     <t>customerType</t>
   </si>
   <si>
-    <t>代理商</t>
+    <t>直客</t>
   </si>
   <si>
     <t>选择csp类型</t>
+  </si>
+  <si>
+    <t>集团CSP</t>
   </si>
   <si>
     <t>选择csp归属省份</t>
@@ -797,13 +800,10 @@
     <t>变更客户类型</t>
   </si>
   <si>
-    <t>直客</t>
+    <t>代理商</t>
   </si>
   <si>
     <t>变更csp类型</t>
-  </si>
-  <si>
-    <t>集团CSP</t>
   </si>
   <si>
     <t>查看页面获取客户类型文本值</t>
@@ -1049,9 +1049,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
@@ -1065,6 +1065,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1072,15 +1073,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,14 +1106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,21 +1121,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1155,7 +1173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,23 +1181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,19 +1195,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1218,13 +1218,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1290,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,121 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,25 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,6 +1427,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1451,20 +1462,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,43 +1507,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,10 +1532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,133 +1544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2071,7 +2071,7 @@
     <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="55.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="36.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="41.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2367,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -18853,7 +18853,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -18861,7 +18861,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -18873,7 +18873,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -18881,7 +18881,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -18890,10 +18890,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -18901,7 +18901,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -18910,10 +18910,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -18921,7 +18921,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -18930,10 +18930,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -18941,7 +18941,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -18950,10 +18950,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -18961,7 +18961,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -18970,10 +18970,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -18981,19 +18981,19 @@
         <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -19001,19 +19001,19 @@
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -19021,7 +19021,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -19030,10 +19030,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -19041,7 +19041,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -19050,10 +19050,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -19061,7 +19061,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -19070,16 +19070,16 @@
         <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -19088,18 +19088,18 @@
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="138" customHeight="1" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -19108,38 +19108,38 @@
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
@@ -19148,18 +19148,18 @@
         <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
@@ -19168,18 +19168,18 @@
         <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
@@ -19188,18 +19188,18 @@
         <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
@@ -19208,58 +19208,58 @@
         <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -19268,18 +19268,18 @@
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
@@ -19288,18 +19288,18 @@
         <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -19308,18 +19308,18 @@
         <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -19328,18 +19328,18 @@
         <v>17</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -19348,18 +19348,18 @@
         <v>17</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
@@ -19368,18 +19368,18 @@
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -19388,18 +19388,18 @@
         <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
@@ -19408,18 +19408,18 @@
         <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
@@ -19428,52 +19428,52 @@
         <v>17</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
@@ -19482,70 +19482,70 @@
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
@@ -19554,18 +19554,18 @@
         <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
@@ -19574,38 +19574,38 @@
         <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
@@ -19614,38 +19614,38 @@
         <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
@@ -19654,18 +19654,18 @@
         <v>17</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
@@ -19674,18 +19674,18 @@
         <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
@@ -19694,18 +19694,18 @@
         <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
@@ -19714,72 +19714,72 @@
         <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -19788,18 +19788,18 @@
         <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
@@ -19808,103 +19808,103 @@
         <v>17</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>53</v>
@@ -19916,16 +19916,16 @@
         <v>43</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>16</v>
@@ -19934,18 +19934,18 @@
         <v>43</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
@@ -19954,7 +19954,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F62" s="3"/>
     </row>
@@ -19970,7 +19970,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -20007,7 +20007,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -20016,7 +20016,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -20025,7 +20025,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>23</v>
@@ -20037,7 +20037,7 @@
         <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -20045,7 +20045,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -20057,7 +20057,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20074,7 +20074,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -20290,7 +20290,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -20429,7 +20429,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -20604,7 +20604,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>311</v>
@@ -20622,7 +20622,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>313</v>
@@ -20642,7 +20642,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>315</v>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>317</v>
@@ -20678,7 +20678,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -20688,7 +20688,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -20698,7 +20698,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -20718,7 +20718,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -20748,7 +20748,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -20848,7 +20848,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -21054,7 +21054,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>337</v>
@@ -21072,7 +21072,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -21082,7 +21082,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -21092,7 +21092,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -21112,7 +21112,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -21122,7 +21122,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -21132,7 +21132,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -21152,7 +21152,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -21162,7 +21162,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -21182,7 +21182,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/CSP/data/test_csp_data.xlsx
+++ b/CSP/data/test_csp_data.xlsx
@@ -203,7 +203,7 @@
     <t>输入新增的CSP名称</t>
   </si>
   <si>
-    <t>中国电信100023</t>
+    <t>中国电信100027</t>
   </si>
   <si>
     <t>处理客户类型下拉框</t>
@@ -1048,9 +1048,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1065,11 +1065,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,15 +1142,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,72 +1172,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1195,15 +1193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1218,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,13 +1284,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1344,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,145 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,26 +1438,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,6 +1477,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1492,21 +1501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1516,11 +1510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,10 +1532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,133 +1544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2368,7 +2368,7 @@
   <dimension ref="A1:XFD62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -19052,7 +19052,7 @@
       <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>94</v>
       </c>
     </row>

--- a/CSP/data/test_csp_data.xlsx
+++ b/CSP/data/test_csp_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="22488"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9155" windowWidth="22403"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,54 +62,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -123,61 +76,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +99,107 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +225,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,31 +327,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,121 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,21 +449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,24 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,11 +490,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -551,133 +551,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="15" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1182,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="26.8888888888889"/>
     <col customWidth="1" max="3" min="3" style="1" width="22.6666666666667"/>
@@ -1647,7 +1647,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="35.5555555555556"/>
     <col customWidth="1" max="3" min="3" style="1" width="22.5555555555556"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F3" s="9" t="inlineStr">
         <is>
-          <t>it测试</t>
+          <t>云鹤飞翔</t>
         </is>
       </c>
       <c r="G3" s="9" t="n"/>
@@ -19953,7 +19953,7 @@
       <c r="E63" s="9" t="n"/>
       <c r="F63" s="9" t="inlineStr">
         <is>
-          <t>中国平安</t>
+          <t>犀牛科技</t>
         </is>
       </c>
     </row>
@@ -20383,10 +20383,10 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="34.3333333333333"/>
     <col customWidth="1" max="3" min="3" style="1" width="30.4444444444444"/>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>#@$Wj</t>
+          <t>@@$Wj</t>
         </is>
       </c>
     </row>
@@ -20881,10 +20881,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="30"/>
     <col customWidth="1" max="3" min="3" style="1" width="24.5555555555556"/>
@@ -21590,7 +21590,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="44.4444444444444"/>
     <col customWidth="1" max="3" min="3" style="1" width="17.8888888888889"/>
@@ -22260,7 +22260,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="4" min="4" style="1" width="16.4444444444444"/>
     <col customWidth="1" max="6" min="6" style="1" width="81"/>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 09:58:10案例执行通过</t>
+          <t>2021-04-07 09:38:17案例执行通过</t>
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 09:56:04案例执行通过</t>
+          <t>2021-04-07 09:36:11案例执行通过</t>
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 09:58:40案例执行通过</t>
+          <t>2021-04-07 09:38:47案例执行通过</t>
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 09:59:09案例执行通过</t>
+          <t>2021-04-07 09:39:18案例执行通过</t>
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:00:55案例执行通过</t>
+          <t>2021-04-07 09:41:18案例执行通过</t>
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:06:49案例执行通过</t>
+          <t>2021-04-07 09:47:32案例执行通过</t>
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
@@ -22671,7 +22671,7 @@
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 09:59:47案例执行通过</t>
+          <t>2021-04-07 09:40:07案例执行通过</t>
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
@@ -22723,7 +22723,7 @@
       </c>
       <c r="I9" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:00:28案例执行通过</t>
+          <t>2021-04-07 09:40:50案例执行通过</t>
         </is>
       </c>
       <c r="J9" s="5" t="n"/>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:01:58案例执行通过</t>
+          <t>2021-04-07 09:42:22案例执行通过</t>
         </is>
       </c>
       <c r="J10" s="5" t="n"/>
@@ -22824,7 +22824,7 @@
       </c>
       <c r="I11" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:02:15案例执行通过</t>
+          <t>2021-04-07 09:42:39案例执行通过</t>
         </is>
       </c>
       <c r="J11" s="5" t="n"/>
@@ -22876,7 +22876,7 @@
       </c>
       <c r="I12" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:02:40案例执行通过</t>
+          <t>2021-04-07 09:43:03案例执行通过</t>
         </is>
       </c>
       <c r="J12" s="5" t="n"/>
@@ -22927,7 +22927,7 @@
       </c>
       <c r="I13" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:06:23案例执行不通过</t>
+          <t>2021-04-07 09:56:20案例执行通过</t>
         </is>
       </c>
       <c r="J13" s="5" t="n"/>
@@ -22978,7 +22978,7 @@
       </c>
       <c r="I14" s="7" t="inlineStr">
         <is>
-          <t>2021-03-16 10:04:31案例执行不通过</t>
+          <t>2021-04-07 09:45:13案例执行通过</t>
         </is>
       </c>
       <c r="J14" s="5" t="n"/>
